--- a/AfDD_2023_Annex_Table_Tab17.xlsx
+++ b/AfDD_2023_Annex_Table_Tab17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>

--- a/AfDD_2023_Annex_Table_Tab17.xlsx
+++ b/AfDD_2023_Annex_Table_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83942343-2E6C-4177-A029-9D8BE8B0604B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD67B3B-CE1D-4A2A-A967-16BA061C06B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{6F059499-A81B-4286-8F6B-FE56C7D2B4D3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D506416F-EADB-4B77-AF8E-CF261CBE605B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency.</t>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC817D8C-DE10-4052-BD9F-F9D17AB971BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A19F64D-8E2E-4727-ACD0-A46626A25A3F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1656,7 +1656,7 @@
         <v>2941.5715850000001</v>
       </c>
       <c r="J9" s="21">
-        <v>5960.5217359999997</v>
+        <v>5960.5217360000097</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
@@ -1688,7 +1688,7 @@
         <v>33675.417873999999</v>
       </c>
       <c r="J10" s="21">
-        <v>96981.941963000005</v>
+        <v>96981.941962999903</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -1752,7 +1752,7 @@
         <v>2213.9129840000001</v>
       </c>
       <c r="J12" s="21">
-        <v>7385.9941950000102</v>
+        <v>7385.9941950000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1976,7 +1976,7 @@
         <v>3265.0121690000001</v>
       </c>
       <c r="J19" s="17">
-        <v>9364.2002699999994</v>
+        <v>9364.2002699999903</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -2168,7 +2168,7 @@
         <v>1952.0159880000001</v>
       </c>
       <c r="J25" s="21">
-        <v>8272.7936960000097</v>
+        <v>8272.7936960000006</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -3192,7 +3192,7 @@
         <v>20783.763923999999</v>
       </c>
       <c r="J57" s="30">
-        <v>61355.482190000002</v>
+        <v>61355.482190000097</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
@@ -4707,11 +4707,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{7B6381EB-7A93-42A4-9D55-59FD9FCAA4A4}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{10C87B8B-27C4-4842-85FA-78410EFE5581}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{BD539F29-C0C3-49E4-86EF-A9BFEAFA373B}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{5679D8B1-550F-4684-8850-757DB1598D9B}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{7879AFCD-C3E5-4F56-A4B6-E3A13C20A506}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3DF2BF9B-BC9C-49BA-A45B-599850967ACB}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E4F969E6-6F86-4031-B80B-E2A3E11D25F4}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{C977B47D-08BA-4129-B8FF-173E7027F57B}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CDE842F2-FEC5-47EE-9E7B-2E6F30F967C9}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{86C7D3AC-3A7F-4B94-B04F-9872CCB7EC81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab17.xlsx
+++ b/AfDD_2023_Annex_Table_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD67B3B-CE1D-4A2A-A967-16BA061C06B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C3081A-7670-476D-B6A1-F5CC0520E9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D506416F-EADB-4B77-AF8E-CF261CBE605B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{37F148DE-A4F0-497E-B0CB-DF8D0D624065}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab17'!$A$2:$J$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab17'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -258,7 +258,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan</t>
+    <t>South Sudan*</t>
   </si>
   <si>
     <t>SDN</t>
@@ -390,7 +390,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigeria*</t>
+    <t>Nigeria</t>
   </si>
   <si>
     <t>SEN</t>
@@ -540,7 +540,7 @@
     <t>Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency.</t>
   </si>
   <si>
-    <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated April 21, 2022).</t>
+    <t>Source: Author's calculations based on BACI International Trade Database at the Product-Level from CEPII (updated 01/02/2023).</t>
   </si>
   <si>
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A19F64D-8E2E-4727-ACD0-A46626A25A3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356889C4-B73C-422E-8096-634BC30D15A6}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2431,31 +2431,31 @@
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="28">
         <v>473.14373399999999</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="29">
         <v>88.64573</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="29">
         <v>2.031558</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="30">
         <v>563.82102199999997</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="28">
         <v>73.6155550000001</v>
       </c>
-      <c r="H34" s="16">
+      <c r="H34" s="29">
         <v>335.12306999999998</v>
       </c>
-      <c r="I34" s="16">
+      <c r="I34" s="29">
         <v>461.00037600000002</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="30">
         <v>869.73900100000003</v>
       </c>
     </row>
@@ -3167,31 +3167,31 @@
       <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B57" s="31" t="s">
+      <c r="B57" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="28">
+      <c r="C57" s="19">
         <v>45169.847285000003</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="20">
         <v>2630.4644669999998</v>
       </c>
-      <c r="E57" s="29">
+      <c r="E57" s="20">
         <v>9780.8453370000007</v>
       </c>
-      <c r="F57" s="30">
+      <c r="F57" s="21">
         <v>57581.157089</v>
       </c>
-      <c r="G57" s="28">
+      <c r="G57" s="19">
         <v>4176.9788349999999</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="20">
         <v>36394.739431000002</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="20">
         <v>20783.763923999999</v>
       </c>
-      <c r="J57" s="30">
+      <c r="J57" s="21">
         <v>61355.482190000097</v>
       </c>
     </row>
@@ -3555,28 +3555,28 @@
         <v>132</v>
       </c>
       <c r="C69" s="43">
-        <v>7358.1747779999996</v>
+        <v>9418.9951000000001</v>
       </c>
       <c r="D69" s="44">
-        <v>11373.86685</v>
+        <v>26069.420524000001</v>
       </c>
       <c r="E69" s="44">
-        <v>2867.5601969999998</v>
+        <v>2891.4281030000002</v>
       </c>
       <c r="F69" s="45">
-        <v>21599.601825000002</v>
+        <v>38379.843726999999</v>
       </c>
       <c r="G69" s="43">
-        <v>2432.9193740000001</v>
+        <v>2980.318072</v>
       </c>
       <c r="H69" s="44">
-        <v>29662.399249999999</v>
+        <v>35214.188652999997</v>
       </c>
       <c r="I69" s="44">
-        <v>16736.425480999998</v>
+        <v>20001.43765</v>
       </c>
       <c r="J69" s="45">
-        <v>48831.744104999998</v>
+        <v>58195.944374999999</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
@@ -3811,28 +3811,28 @@
         <v>140</v>
       </c>
       <c r="C77" s="43">
-        <v>297486.90285299998</v>
+        <v>295928.30973899999</v>
       </c>
       <c r="D77" s="44">
-        <v>272295.33759100002</v>
+        <v>270682.92193999997</v>
       </c>
       <c r="E77" s="44">
-        <v>53619.144651000002</v>
+        <v>53585.117163000003</v>
       </c>
       <c r="F77" s="45">
-        <v>623401.38509500003</v>
+        <v>620196.34884200001</v>
       </c>
       <c r="G77" s="43">
-        <v>43299.050404000001</v>
+        <v>42614.062790999997</v>
       </c>
       <c r="H77" s="44">
-        <v>320916.69474800001</v>
+        <v>316869.34749100002</v>
       </c>
       <c r="I77" s="44">
-        <v>189285.08664299999</v>
+        <v>186966.86866899999</v>
       </c>
       <c r="J77" s="45">
-        <v>553500.83179500001</v>
+        <v>546450.27895099996</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
@@ -3907,28 +3907,28 @@
         <v>143</v>
       </c>
       <c r="C80" s="51">
-        <v>138750.11364299999</v>
+        <v>94053.410092000006</v>
       </c>
       <c r="D80" s="52">
-        <v>22400.089081999999</v>
+        <v>19858.270345000001</v>
       </c>
       <c r="E80" s="52">
-        <v>21929.862343000001</v>
+        <v>12151.048564000001</v>
       </c>
       <c r="F80" s="53">
-        <v>183080.065068</v>
+        <v>126062.729001</v>
       </c>
       <c r="G80" s="51">
-        <v>12923.330802</v>
+        <v>8819.9675220000099</v>
       </c>
       <c r="H80" s="52">
-        <v>79623.637537999995</v>
+        <v>43564.021177000002</v>
       </c>
       <c r="I80" s="52">
-        <v>45520.109471000003</v>
+        <v>25197.345923000001</v>
       </c>
       <c r="J80" s="53">
-        <v>138067.077811</v>
+        <v>77581.334621999995</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
@@ -3971,28 +3971,28 @@
         <v>145</v>
       </c>
       <c r="C82" s="43">
-        <v>112997.261314</v>
+        <v>157693.96486499999</v>
       </c>
       <c r="D82" s="44">
-        <v>251298.94870000001</v>
+        <v>253840.767437</v>
       </c>
       <c r="E82" s="44">
-        <v>65543.582901999995</v>
+        <v>75322.396680999998</v>
       </c>
       <c r="F82" s="45">
-        <v>429839.79291600001</v>
+        <v>486857.128983</v>
       </c>
       <c r="G82" s="43">
-        <v>58513.288569999997</v>
+        <v>62616.651850000002</v>
       </c>
       <c r="H82" s="44">
-        <v>305088.672785</v>
+        <v>341148.289146</v>
       </c>
       <c r="I82" s="44">
-        <v>175597.39592099999</v>
+        <v>195920.15946900001</v>
       </c>
       <c r="J82" s="45">
-        <v>539199.35727599997</v>
+        <v>599685.10046500002</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4035,28 +4035,28 @@
         <v>147</v>
       </c>
       <c r="C84" s="51">
-        <v>24921.180699</v>
+        <v>25824.748020999999</v>
       </c>
       <c r="D84" s="52">
-        <v>57993.647730999997</v>
+        <v>70066.253211000003</v>
       </c>
       <c r="E84" s="52">
-        <v>4048.848853</v>
+        <v>4474.529149</v>
       </c>
       <c r="F84" s="53">
-        <v>86963.677282999997</v>
+        <v>100365.530381</v>
       </c>
       <c r="G84" s="51">
-        <v>8291.2213940000001</v>
+        <v>8770.2163909999999</v>
       </c>
       <c r="H84" s="52">
-        <v>64040.279282000003</v>
+        <v>68442.571150999996</v>
       </c>
       <c r="I84" s="52">
-        <v>44612.765802000002</v>
+        <v>46829.306573000002</v>
       </c>
       <c r="J84" s="53">
-        <v>116944.26647800001</v>
+        <v>124042.094115</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
@@ -4099,28 +4099,28 @@
         <v>149</v>
       </c>
       <c r="C86" s="43">
-        <v>145814.43778499999</v>
+        <v>144910.870463</v>
       </c>
       <c r="D86" s="44">
-        <v>121585.95243200001</v>
+        <v>109513.34695200001</v>
       </c>
       <c r="E86" s="44">
-        <v>56294.926534999999</v>
+        <v>55869.246239</v>
       </c>
       <c r="F86" s="45">
-        <v>323695.31675200001</v>
+        <v>310293.46365400002</v>
       </c>
       <c r="G86" s="43">
-        <v>48502.395496999998</v>
+        <v>48023.400500000003</v>
       </c>
       <c r="H86" s="44">
-        <v>244746.123632</v>
+        <v>240343.83176299999</v>
       </c>
       <c r="I86" s="44">
-        <v>127674.09292900001</v>
+        <v>125457.55215800001</v>
       </c>
       <c r="J86" s="45">
-        <v>420922.612058</v>
+        <v>413824.78442099999</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
@@ -4131,28 +4131,28 @@
         <v>150</v>
       </c>
       <c r="C87" s="43">
-        <v>193016.73742600001</v>
+        <v>194470.135392</v>
       </c>
       <c r="D87" s="44">
-        <v>732196.88817499997</v>
+        <v>733783.27934000001</v>
       </c>
       <c r="E87" s="44">
-        <v>495382.47211099998</v>
+        <v>496735.95795900002</v>
       </c>
       <c r="F87" s="45">
-        <v>1420596.0977119999</v>
+        <v>1424989.3726910001</v>
       </c>
       <c r="G87" s="43">
-        <v>295632.95171400002</v>
+        <v>297241.19151500001</v>
       </c>
       <c r="H87" s="44">
-        <v>1015611.667615</v>
+        <v>1025532.624169</v>
       </c>
       <c r="I87" s="44">
-        <v>402936.672976</v>
+        <v>406270.978947</v>
       </c>
       <c r="J87" s="45">
-        <v>1714181.2923049999</v>
+        <v>1729044.7946309999</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
@@ -4195,28 +4195,28 @@
         <v>152</v>
       </c>
       <c r="C89" s="43">
-        <v>758564.33588599996</v>
+        <v>743843.44721000001</v>
       </c>
       <c r="D89" s="44">
-        <v>2967177.902032</v>
+        <v>2914501.4640489998</v>
       </c>
       <c r="E89" s="44">
-        <v>2387920.0689050001</v>
+        <v>2353369.6726939999</v>
       </c>
       <c r="F89" s="45">
-        <v>6113662.3068230003</v>
+        <v>6011714.5839529997</v>
       </c>
       <c r="G89" s="43">
-        <v>855591.58895700006</v>
+        <v>839497.87980600004</v>
       </c>
       <c r="H89" s="44">
-        <v>2444958.0237039998</v>
+        <v>2355351.1080339998</v>
       </c>
       <c r="I89" s="44">
-        <v>1174796.0124590001</v>
+        <v>1116544.828945</v>
       </c>
       <c r="J89" s="45">
-        <v>4475345.62512</v>
+        <v>4311393.8167850003</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4227,28 +4227,28 @@
         <v>153</v>
       </c>
       <c r="C90" s="47">
-        <v>1502593.7620620001</v>
+        <v>1515861.2527719999</v>
       </c>
       <c r="D90" s="48">
-        <v>6617306.3103670003</v>
+        <v>6668396.3571849996</v>
       </c>
       <c r="E90" s="48">
-        <v>4180260.9993699999</v>
+        <v>4213457.9097330002</v>
       </c>
       <c r="F90" s="49">
-        <v>12300161.071799001</v>
+        <v>12397715.51969</v>
       </c>
       <c r="G90" s="47">
-        <v>1433762.6232459999</v>
+        <v>1448248.0925960001</v>
       </c>
       <c r="H90" s="48">
-        <v>6501662.629489</v>
+        <v>6581348.5886049997</v>
       </c>
       <c r="I90" s="48">
-        <v>5152201.1363909999</v>
+        <v>5207118.0139340004</v>
       </c>
       <c r="J90" s="49">
-        <v>13087626.389126001</v>
+        <v>13236714.695134999</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
@@ -4355,28 +4355,28 @@
         <v>157</v>
       </c>
       <c r="C94" s="43">
-        <v>20074.922480000001</v>
+        <v>18286.687395000001</v>
       </c>
       <c r="D94" s="44">
-        <v>302278.47546500002</v>
+        <v>290198.90422899998</v>
       </c>
       <c r="E94" s="44">
-        <v>106585.497751</v>
+        <v>105489.00932300001</v>
       </c>
       <c r="F94" s="45">
-        <v>428938.89569600002</v>
+        <v>413974.60094700003</v>
       </c>
       <c r="G94" s="43">
-        <v>43069.574145999999</v>
+        <v>40252.535067999997</v>
       </c>
       <c r="H94" s="44">
-        <v>299086.35153599997</v>
+        <v>292166.44242199999</v>
       </c>
       <c r="I94" s="44">
-        <v>125712.83173400001</v>
+        <v>119966.863333</v>
       </c>
       <c r="J94" s="45">
-        <v>467868.75741600001</v>
+        <v>452385.84082300001</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
@@ -4451,28 +4451,28 @@
         <v>160</v>
       </c>
       <c r="C97" s="51">
-        <v>156325.02116800001</v>
+        <v>157198.79424799999</v>
       </c>
       <c r="D97" s="52">
-        <v>100649.85322</v>
+        <v>101755.561858</v>
       </c>
       <c r="E97" s="52">
-        <v>24268.370361000001</v>
+        <v>24326.603030999999</v>
       </c>
       <c r="F97" s="53">
-        <v>281243.244749</v>
+        <v>283280.95913700003</v>
       </c>
       <c r="G97" s="51">
-        <v>21135.147474000001</v>
+        <v>21273.189844</v>
       </c>
       <c r="H97" s="52">
-        <v>172936.93109599999</v>
+        <v>176202.64144499999</v>
       </c>
       <c r="I97" s="52">
-        <v>104556.05510300001</v>
+        <v>106074.482198</v>
       </c>
       <c r="J97" s="53">
-        <v>298628.13367299997</v>
+        <v>303550.31348700001</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4483,28 +4483,28 @@
         <v>161</v>
       </c>
       <c r="C98" s="47">
-        <v>111087.543261</v>
+        <v>116682.282012</v>
       </c>
       <c r="D98" s="48">
-        <v>67252.469305999999</v>
+        <v>68947.545180000001</v>
       </c>
       <c r="E98" s="48">
-        <v>113412.55750900001</v>
+        <v>113633.696684</v>
       </c>
       <c r="F98" s="49">
-        <v>291752.570076</v>
+        <v>299263.52387600002</v>
       </c>
       <c r="G98" s="47">
-        <v>44586.216565000002</v>
+        <v>44715.540176000002</v>
       </c>
       <c r="H98" s="48">
-        <v>244145.84121000001</v>
+        <v>246466.85517900001</v>
       </c>
       <c r="I98" s="48">
-        <v>113095.138247</v>
+        <v>114928.01353700001</v>
       </c>
       <c r="J98" s="49">
-        <v>401827.19602199999</v>
+        <v>406110.40889199998</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4707,11 +4707,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{3DF2BF9B-BC9C-49BA-A45B-599850967ACB}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{E4F969E6-6F86-4031-B80B-E2A3E11D25F4}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{C977B47D-08BA-4129-B8FF-173E7027F57B}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{CDE842F2-FEC5-47EE-9E7B-2E6F30F967C9}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{86C7D3AC-3A7F-4B94-B04F-9872CCB7EC81}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A23915CF-54A4-4A0D-9CCE-D4766FF3E674}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{523CACF1-5412-4E0C-8E06-17DACD4C31CA}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{778C31F3-5802-4DEB-BE1B-AF19E8BD6BD9}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6424C44A-C86C-49AE-BEB3-DB4DE36609D9}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{D98FF52E-214C-4CE7-8ED4-C7C75E9E9AC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab17.xlsx
+++ b/AfDD_2023_Annex_Table_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42C3081A-7670-476D-B6A1-F5CC0520E9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD65C63D-266C-4D73-B41D-08070EA77C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{37F148DE-A4F0-497E-B0CB-DF8D0D624065}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{89BFB845-5141-443F-B6F1-864D278E8197}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356889C4-B73C-422E-8096-634BC30D15A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D09A5A-6AAD-4DC4-80BE-F5FF2F1FBDF1}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4707,11 +4707,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{A23915CF-54A4-4A0D-9CCE-D4766FF3E674}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{523CACF1-5412-4E0C-8E06-17DACD4C31CA}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{778C31F3-5802-4DEB-BE1B-AF19E8BD6BD9}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{6424C44A-C86C-49AE-BEB3-DB4DE36609D9}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{D98FF52E-214C-4CE7-8ED4-C7C75E9E9AC5}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4C6D920C-F97A-4501-A42A-5DDD6115BFAA}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3B35CB2F-2506-4E46-BD95-6D7CBA1006FF}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{30174B56-B304-455A-B61F-8F7A8720CCB8}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8EC6F64B-347C-4A71-92DF-C4EDAE11D841}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{C4F3ABF8-664C-43F1-9030-96528B9D5A1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab17.xlsx
+++ b/AfDD_2023_Annex_Table_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD65C63D-266C-4D73-B41D-08070EA77C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B982BCAF-EB97-4E02-BF77-EACD51204E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{89BFB845-5141-443F-B6F1-864D278E8197}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B670DD0B-B007-4C72-A081-3A8951B609F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Pa&gt;ses Africanos de L&gt;ngua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Com&gt;n del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities:CEN-SAD = "Community of Sahel-Saharan States";COMESA = "Common Market for Eastern and Southern Africa";EAC = "East African Community";ECCAS = "Economic Community of Central African States";ECOWAS = "Economic Community of West African States";IGAD = "Intergovernmental Authority on Development";SADC = "Southern African Development Community";UMA = "Arab Maghreb Union";PALOP = "Países Africanos de Língua Oficial Portuguesa";ASEAN = "Association of Southeast Asian Nations";MERCOSUR = "Mercado Común del Sur".EU27 = "European Union (27 members)".OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Exports/imports for the five countries belonging to the Southern African Customs Union (Botswana, Eswatini, Lesotho, South Africa and Namibia) are reported as exports/imports for South Africa in this data in order to improve data consistency.</t>
@@ -1375,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D09A5A-6AAD-4DC4-80BE-F5FF2F1FBDF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD3593F-726C-4FB6-B41B-CAB40808F8AD}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3509,7 +3509,7 @@
         <v>139874.64110400001</v>
       </c>
       <c r="I67" s="52">
-        <v>75378.546306000106</v>
+        <v>75378.546306000004</v>
       </c>
       <c r="J67" s="53">
         <v>246315.938692</v>
@@ -4451,28 +4451,28 @@
         <v>160</v>
       </c>
       <c r="C97" s="51">
-        <v>157198.79424799999</v>
+        <v>144193.31095099999</v>
       </c>
       <c r="D97" s="52">
-        <v>101755.561858</v>
+        <v>78305.983385</v>
       </c>
       <c r="E97" s="52">
-        <v>24326.603030999999</v>
+        <v>22463.926414000001</v>
       </c>
       <c r="F97" s="53">
-        <v>283280.95913700003</v>
+        <v>244963.22075000001</v>
       </c>
       <c r="G97" s="51">
-        <v>21273.189844</v>
+        <v>19017.378799999999</v>
       </c>
       <c r="H97" s="52">
-        <v>176202.64144499999</v>
+        <v>159093.021412</v>
       </c>
       <c r="I97" s="52">
-        <v>106074.482198</v>
+        <v>94732.637432999996</v>
       </c>
       <c r="J97" s="53">
-        <v>303550.31348700001</v>
+        <v>272843.03764499997</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4483,28 +4483,28 @@
         <v>161</v>
       </c>
       <c r="C98" s="47">
-        <v>116682.282012</v>
+        <v>40674.361312000001</v>
       </c>
       <c r="D98" s="48">
-        <v>68947.545180000001</v>
+        <v>59146.964883000001</v>
       </c>
       <c r="E98" s="48">
-        <v>113633.696684</v>
+        <v>112031.16651700001</v>
       </c>
       <c r="F98" s="49">
-        <v>299263.52387600002</v>
+        <v>211852.49271200001</v>
       </c>
       <c r="G98" s="47">
-        <v>44715.540176000002</v>
+        <v>39684.129846999997</v>
       </c>
       <c r="H98" s="48">
-        <v>246466.85517900001</v>
+        <v>203628.562393</v>
       </c>
       <c r="I98" s="48">
-        <v>114928.01353700001</v>
+        <v>84104.150620999993</v>
       </c>
       <c r="J98" s="49">
-        <v>406110.40889199998</v>
+        <v>327416.84286099998</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.35">
@@ -4707,11 +4707,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{4C6D920C-F97A-4501-A42A-5DDD6115BFAA}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{3B35CB2F-2506-4E46-BD95-6D7CBA1006FF}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{30174B56-B304-455A-B61F-8F7A8720CCB8}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{8EC6F64B-347C-4A71-92DF-C4EDAE11D841}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{C4F3ABF8-664C-43F1-9030-96528B9D5A1E}"/>
+    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{99E7E286-E3DF-42E6-999D-A27CB32EF7C3}"/>
+    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9A36CE39-6C77-4C33-95DC-F4F4B1D865C8}"/>
+    <hyperlink ref="B107" r:id="rId1" xr:uid="{5511F0FF-115E-4509-AD13-5E7FB60335E6}"/>
+    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{AAD4BB4E-F410-4F89-B6FE-1E1F4800955B}"/>
+    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{045E76A0-4B38-4ECB-910A-A65FDCBBE8F5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>

--- a/AfDD_2023_Annex_Table_Tab17.xlsx
+++ b/AfDD_2023_Annex_Table_Tab17.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B982BCAF-EB97-4E02-BF77-EACD51204E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B758F498-0C3F-47F7-A3DF-EF6641CAE484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{B670DD0B-B007-4C72-A081-3A8951B609F0}"/>
+    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{51C656B5-E2C4-4C73-BD1B-B18DC0E11EA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="174">
   <si>
     <t>Table 17: Trade by manufacturing intensity</t>
   </si>
@@ -546,16 +546,19 @@
     <t>If you would like to Implore these data further, look up historic values for these indicators, or produce interactive visualisations of these data, please visit the website https://oe.cd/AFDD-2022</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators.</t>
-  </si>
-  <si>
     <t>To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here.</t>
   </si>
   <si>
     <t>To download the entire dataset as a flat file in compressed CSV form, click here.</t>
+  </si>
+  <si>
+    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
+  </si>
+  <si>
+    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
+  </si>
+  <si>
+    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -1375,7 +1378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD3593F-726C-4FB6-B41B-CAB40808F8AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9BD3E4-E7E9-467E-851B-B00A0F0DBE87}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -4633,7 +4636,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B109" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C109" s="56"/>
       <c r="D109" s="56"/>
@@ -4646,7 +4649,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C110" s="56"/>
       <c r="D110" s="56"/>
@@ -4658,7 +4661,9 @@
       <c r="J110" s="56"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B111" s="2"/>
+      <c r="B111" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="C111" s="56"/>
       <c r="D111" s="56"/>
       <c r="E111" s="56"/>
@@ -4670,7 +4675,7 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C112" s="56"/>
       <c r="D112" s="56"/>
@@ -4683,7 +4688,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C113" s="56"/>
       <c r="D113" s="56"/>
@@ -4707,13 +4712,14 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{99E7E286-E3DF-42E6-999D-A27CB32EF7C3}"/>
-    <hyperlink ref="B110" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{9A36CE39-6C77-4C33-95DC-F4F4B1D865C8}"/>
-    <hyperlink ref="B107" r:id="rId1" xr:uid="{5511F0FF-115E-4509-AD13-5E7FB60335E6}"/>
-    <hyperlink ref="B113" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{AAD4BB4E-F410-4F89-B6FE-1E1F4800955B}"/>
-    <hyperlink ref="B112" display="To download all data for the Africa's Development Dynamics statistical annex in an Excel format, including historic data back to 2000, click here." xr:uid="{045E76A0-4B38-4ECB-910A-A65FDCBBE8F5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8DF14A8B-4501-4FBF-AE0F-A297D7B23E86}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D366F8E6-D60D-45AE-BAD2-297EE1923C69}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{CC7F231B-18E8-478C-9CFF-C0B2E42187CE}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{8B4A429A-2B42-40BA-88DE-9B62DD931C13}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{A5D6C48C-3C88-4518-BAF6-61A54E09BEE2}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{526A45E0-E4FF-4642-B92F-9D5D2070C662}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/AfDD_2023_Annex_Table_Tab17.xlsx
+++ b/AfDD_2023_Annex_Table_Tab17.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B758F498-0C3F-47F7-A3DF-EF6641CAE484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AC2619D-4839-4869-9021-812E63C1C363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-10695" windowWidth="29040" windowHeight="15840" xr2:uid="{51C656B5-E2C4-4C73-BD1B-B18DC0E11EA9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{94261EA2-E7C2-4526-BF62-916F9FD9C5F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab17" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab17'!$A$2:$J$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab17'!$A$1:$I$98</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1378,7 +1378,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D9BD3E4-E7E9-467E-851B-B00A0F0DBE87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EED209-C8B2-4F27-9275-C8A291947A89}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1386,14 +1386,14 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="12.36328125" style="58" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="12.33203125" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1406,7 +1406,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
     </row>
-    <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>11205.28649</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>13</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>7990.6591779999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>15</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>2170.8415450000002</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>1591.369596</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>1653.1023479999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>21</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>16702.659562000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>5960.5217360000097</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>25</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>96981.941962999903</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>27</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>7097.8276370000003</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>7385.9941950000002</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>158740.20425000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>33</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>1022.280429</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>35</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>7964.4682720000001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>37</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>277.56379800000002</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>39</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>1085.5054520000001</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>41</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>3247.7754070000001</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>9364.2002699999903</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>45</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>857.27300500000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>47</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>2144.7755849999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>158.38347400000001</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="22" t="s">
         <v>31</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>26122.225692</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>52</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>527.91727800000001</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>54</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>8272.7936960000006</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>56</v>
       </c>
@@ -2206,7 +2206,7 @@
         <v>329.21023100000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>58</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>11775.242333</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>60</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>23084.005832999999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>4534.226326</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>64</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>5548.9581619999999</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>66</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>3560.3261619999998</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>68</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>1621.2805129999999</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>70</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>5075.7319729999999</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
         <v>72</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>869.73900100000003</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>74</v>
       </c>
@@ -2494,7 +2494,7 @@
         <v>8577.9962759999999</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>76</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>15120.818295999999</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>78</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>5174.5743839999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>94072.820464000004</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="9" t="s">
         <v>81</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>34286.908195999997</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>83</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>97777.059487999999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>85</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>18294.146409000001</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>87</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>4720.7668590000003</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>89</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>56982.507082999997</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>91</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>23468.223204000002</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="22" t="s">
         <v>31</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>235529.61123899999</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
         <v>94</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>4922.1798140000001</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>96</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>4512.3983349999999</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>98</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>869.15821800000106</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>100</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>14000.528996999999</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>102</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>1862.9202250000001</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>104</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>20230.164387000001</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>106</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>5277.2781949999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>108</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>420.02794799999998</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>110</v>
       </c>
@@ -3102,7 +3102,7 @@
         <v>13241.146331</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>112</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>4559.5367429999997</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>114</v>
       </c>
@@ -3166,7 +3166,7 @@
         <v>2363.682581</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>116</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>61355.482190000097</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>118</v>
       </c>
@@ -3230,7 +3230,7 @@
         <v>14482.151903</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>120</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>1599.689149</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>122</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>13105.228426</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="22" t="s">
         <v>31</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>162801.57344199999</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="32" t="s">
         <v>31</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>677266.43508700002</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="32" t="s">
         <v>31</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>19304852.737686999</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="41" t="s">
         <v>31</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>1193947.9059679999</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="41" t="s">
         <v>31</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>4178157.5532030002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="41" t="s">
         <v>31</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>19982119.172773998</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="41" t="s">
         <v>31</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>246315.938692</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="41" t="s">
         <v>31</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>374080.69063999999</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="41" t="s">
         <v>31</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>58195.944374999999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="41" t="s">
         <v>31</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>40887.838344000003</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>31</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>162801.57344199999</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="41" t="s">
         <v>31</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>63159.293726999997</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="41" t="s">
         <v>31</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>195457.60509500001</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="41" t="s">
         <v>31</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>137752.55175099999</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="41" t="s">
         <v>31</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>29355.515692000001</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="41" t="s">
         <v>31</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>1618196.1189349999</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>31</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>546450.27895099996</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="41" t="s">
         <v>31</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>6242296.4574140003</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="41" t="s">
         <v>31</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>12863523.648220001</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="41" t="s">
         <v>31</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>77581.334621999995</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="41" t="s">
         <v>31</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>1051294.513366</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="41" t="s">
         <v>31</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>599685.10046500002</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="41" t="s">
         <v>31</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>18253558.224321</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="41" t="s">
         <v>31</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>124042.094115</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="41" t="s">
         <v>31</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>22270.158804999999</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="41" t="s">
         <v>31</v>
       </c>
@@ -4126,7 +4126,7 @@
         <v>413824.78442099999</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="41" t="s">
         <v>31</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>1729044.7946309999</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="41" t="s">
         <v>31</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>137778.27603800001</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="41" t="s">
         <v>31</v>
       </c>
@@ -4222,7 +4222,7 @@
         <v>4311393.8167850003</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="41" t="s">
         <v>31</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>13236714.695134999</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="41" t="s">
         <v>31</v>
       </c>
@@ -4286,7 +4286,7 @@
         <v>185043.76152100001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="41" t="s">
         <v>31</v>
       </c>
@@ -4318,7 +4318,7 @@
         <v>189564.47966700001</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="41" t="s">
         <v>31</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>9145.7255929999992</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="41" t="s">
         <v>31</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>452385.84082300001</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="41" t="s">
         <v>31</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>63090.643716999999</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="41" t="s">
         <v>31</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>188109.97302100001</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="41" t="s">
         <v>31</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>272843.03764499997</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="41" t="s">
         <v>31</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>327416.84286099998</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="54"/>
       <c r="B99" s="55"/>
       <c r="C99" s="35"/>
@@ -4522,7 +4522,7 @@
       <c r="I99" s="35"/>
       <c r="J99" s="35"/>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
@@ -4535,7 +4535,7 @@
       <c r="I100" s="56"/>
       <c r="J100" s="56"/>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>163</v>
       </c>
@@ -4548,7 +4548,7 @@
       <c r="I101" s="56"/>
       <c r="J101" s="56"/>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>164</v>
       </c>
@@ -4561,7 +4561,7 @@
       <c r="I102" s="56"/>
       <c r="J102" s="56"/>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>165</v>
       </c>
@@ -4574,7 +4574,7 @@
       <c r="I103" s="56"/>
       <c r="J103" s="56"/>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>166</v>
       </c>
@@ -4587,7 +4587,7 @@
       <c r="I104" s="56"/>
       <c r="J104" s="56"/>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>167</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="I105" s="56"/>
       <c r="J105" s="56"/>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C106" s="56"/>
       <c r="D106" s="56"/>
       <c r="E106" s="56"/>
@@ -4610,7 +4610,7 @@
       <c r="I106" s="56"/>
       <c r="J106" s="56"/>
     </row>
-    <row r="107" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B107" s="57" t="s">
         <v>168</v>
       </c>
@@ -4623,7 +4623,7 @@
       <c r="I107" s="56"/>
       <c r="J107" s="56"/>
     </row>
-    <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B108" s="57"/>
       <c r="C108" s="56"/>
       <c r="D108" s="56"/>
@@ -4634,7 +4634,7 @@
       <c r="I108" s="56"/>
       <c r="J108" s="56"/>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B109" s="2" t="s">
         <v>171</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="I109" s="56"/>
       <c r="J109" s="56"/>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B110" s="2" t="s">
         <v>172</v>
       </c>
@@ -4660,7 +4660,7 @@
       <c r="I110" s="56"/>
       <c r="J110" s="56"/>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B111" s="2" t="s">
         <v>173</v>
       </c>
@@ -4673,7 +4673,7 @@
       <c r="I111" s="56"/>
       <c r="J111" s="56"/>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B112" s="2" t="s">
         <v>169</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="I112" s="56"/>
       <c r="J112" s="56"/>
     </row>
-    <row r="113" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B113" s="2" t="s">
         <v>170</v>
       </c>
@@ -4699,7 +4699,7 @@
       <c r="I113" s="56"/>
       <c r="J113" s="56"/>
     </row>
-    <row r="114" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
       <c r="C114" s="56"/>
       <c r="D114" s="56"/>
@@ -4712,12 +4712,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{8DF14A8B-4501-4FBF-AE0F-A297D7B23E86}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{D366F8E6-D60D-45AE-BAD2-297EE1923C69}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{CC7F231B-18E8-478C-9CFF-C0B2E42187CE}"/>
-    <hyperlink ref="B113" r:id="rId4" xr:uid="{8B4A429A-2B42-40BA-88DE-9B62DD931C13}"/>
-    <hyperlink ref="B112" r:id="rId5" xr:uid="{A5D6C48C-3C88-4518-BAF6-61A54E09BEE2}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{526A45E0-E4FF-4642-B92F-9D5D2070C662}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicators!A1" display="For more information about the indicators presented in this table, go to the List of indicators, descriptions and details." xr:uid="{BD47BE67-39AA-44A4-8D9F-64778FE4710D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Country groupings'!A1" display="To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators" xr:uid="{633023E5-3CFA-498F-B991-A859BFF7D23C}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{6CFEB91A-E5D8-4691-8DEB-67B0CF34E01E}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{F7BCC1F8-50D9-4852-A530-BD408DD1ED88}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{54867591-F96F-46EC-8CC8-BFD94F5C147E}"/>
+    <hyperlink ref="B111" r:id="rId6" xr:uid="{18500A2B-074C-449D-8F96-7026DE24A98B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
